--- a/Code/Results/Cases/Case_5_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_120/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.076246063154031</v>
+        <v>1.131363195441736</v>
       </c>
       <c r="C2">
-        <v>0.3427278639343569</v>
+        <v>0.1326042677527255</v>
       </c>
       <c r="D2">
-        <v>0.05406526800943823</v>
+        <v>0.1275294616269278</v>
       </c>
       <c r="E2">
-        <v>0.04112934331765938</v>
+        <v>0.1186993804594541</v>
       </c>
       <c r="F2">
-        <v>0.7612726559184608</v>
+        <v>1.560539851896451</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3782249782961884</v>
+        <v>0.9378677532000133</v>
       </c>
       <c r="J2">
-        <v>0.05803388062565507</v>
+        <v>0.1443678292441852</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1949294927655174</v>
+        <v>0.3127432918536357</v>
       </c>
       <c r="M2">
-        <v>0.3827465823526097</v>
+        <v>0.2926087856766273</v>
       </c>
       <c r="N2">
-        <v>0.8702074133965922</v>
+        <v>1.574602123217531</v>
       </c>
       <c r="O2">
-        <v>1.98116714640571</v>
+        <v>3.989614806516471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.808649615884946</v>
+        <v>1.054654112222835</v>
       </c>
       <c r="C3">
-        <v>0.3048265721643872</v>
+        <v>0.120284905689843</v>
       </c>
       <c r="D3">
-        <v>0.05161190258900206</v>
+        <v>0.1273487956012396</v>
       </c>
       <c r="E3">
-        <v>0.04190944669871666</v>
+        <v>0.1193505311781822</v>
       </c>
       <c r="F3">
-        <v>0.7341323017752543</v>
+        <v>1.564899490733488</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3806215727152669</v>
+        <v>0.9455961383165139</v>
       </c>
       <c r="J3">
-        <v>0.05933284329088284</v>
+        <v>0.1451163965833979</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1785717854441984</v>
+        <v>0.3096940352696365</v>
       </c>
       <c r="M3">
-        <v>0.3357601415632701</v>
+        <v>0.2799589163362128</v>
       </c>
       <c r="N3">
-        <v>0.8971755839022819</v>
+        <v>1.58738224020091</v>
       </c>
       <c r="O3">
-        <v>1.911927293025599</v>
+        <v>4.002590084295832</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.644699189386927</v>
+        <v>1.007785563639914</v>
       </c>
       <c r="C4">
-        <v>0.2815210392160026</v>
+        <v>0.1126673836268992</v>
       </c>
       <c r="D4">
-        <v>0.05014192086825275</v>
+        <v>0.1272696348334676</v>
       </c>
       <c r="E4">
-        <v>0.04242057524480591</v>
+        <v>0.1197759119407662</v>
       </c>
       <c r="F4">
-        <v>0.7188021051367741</v>
+        <v>1.568351032597818</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3828790802595243</v>
+        <v>0.9507960789339478</v>
       </c>
       <c r="J4">
-        <v>0.06016459508686189</v>
+        <v>0.1456016224407435</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1686735012062925</v>
+        <v>0.3079292087611449</v>
       </c>
       <c r="M4">
-        <v>0.3070318436635162</v>
+        <v>0.2722774406975574</v>
       </c>
       <c r="N4">
-        <v>0.914757996561562</v>
+        <v>1.595759612943993</v>
       </c>
       <c r="O4">
-        <v>1.873215404968107</v>
+        <v>4.012665513329068</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.577957790758546</v>
+        <v>0.9887458202979644</v>
       </c>
       <c r="C5">
-        <v>0.2720126115076624</v>
+        <v>0.1095499019420316</v>
       </c>
       <c r="D5">
-        <v>0.04955177171614267</v>
+        <v>0.1272453982941961</v>
       </c>
       <c r="E5">
-        <v>0.0426368662556218</v>
+        <v>0.1199557005955256</v>
       </c>
       <c r="F5">
-        <v>0.7128753584240002</v>
+        <v>1.569952506591456</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3839892554242894</v>
+        <v>0.9530294468627538</v>
       </c>
       <c r="J5">
-        <v>0.06051210312131783</v>
+        <v>0.1458058067498973</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1646744079776568</v>
+        <v>0.3072371620956105</v>
       </c>
       <c r="M5">
-        <v>0.2953515448052642</v>
+        <v>0.2691689674518187</v>
       </c>
       <c r="N5">
-        <v>0.922174216643711</v>
+        <v>1.599306940158947</v>
       </c>
       <c r="O5">
-        <v>1.858350999772739</v>
+        <v>4.01730171439462</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.56687909565747</v>
+        <v>0.9855879260251754</v>
       </c>
       <c r="C6">
-        <v>0.2704329904900078</v>
+        <v>0.1090314486779107</v>
       </c>
       <c r="D6">
-        <v>0.04945430659661909</v>
+        <v>0.1272418593395557</v>
       </c>
       <c r="E6">
-        <v>0.04267326222032963</v>
+        <v>0.1199859438417414</v>
       </c>
       <c r="F6">
-        <v>0.7119101535744576</v>
+        <v>1.570230208211811</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3841848774387806</v>
+        <v>0.9534072028578713</v>
       </c>
       <c r="J6">
-        <v>0.06057032276292418</v>
+        <v>0.1458401013926416</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1640123903255244</v>
+        <v>0.3071238906754417</v>
       </c>
       <c r="M6">
-        <v>0.2934135451761719</v>
+        <v>0.268654131783812</v>
       </c>
       <c r="N6">
-        <v>0.9234206730465431</v>
+        <v>1.599904036709873</v>
       </c>
       <c r="O6">
-        <v>1.855936524437027</v>
+        <v>4.018103590808408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.643798834162197</v>
+        <v>1.007528543881847</v>
       </c>
       <c r="C7">
-        <v>0.2813928541514912</v>
+        <v>0.1126253937541151</v>
       </c>
       <c r="D7">
-        <v>0.05013392630206681</v>
+        <v>0.1272692754446965</v>
       </c>
       <c r="E7">
-        <v>0.04242345992507035</v>
+        <v>0.1197783105311396</v>
       </c>
       <c r="F7">
-        <v>0.7187208968987733</v>
+        <v>1.568371841140362</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3828932918290313</v>
+        <v>0.9508257358948917</v>
       </c>
       <c r="J7">
-        <v>0.0601692470756312</v>
+        <v>0.1456043500055655</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1686194307971292</v>
+        <v>0.3079197655514392</v>
       </c>
       <c r="M7">
-        <v>0.3068742158324298</v>
+        <v>0.2722354301577283</v>
       </c>
       <c r="N7">
-        <v>0.9148570050005986</v>
+        <v>1.595806912818446</v>
       </c>
       <c r="O7">
-        <v>1.873011307655531</v>
+        <v>4.01272589104164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.983892982076839</v>
+        <v>1.10486677463382</v>
       </c>
       <c r="C8">
-        <v>0.3296648716272443</v>
+        <v>0.1283677145816</v>
       </c>
       <c r="D8">
-        <v>0.05321162517982714</v>
+        <v>0.1274605942275144</v>
       </c>
       <c r="E8">
-        <v>0.04139160269415143</v>
+        <v>0.1189185972995608</v>
       </c>
       <c r="F8">
-        <v>0.7516284955074468</v>
+        <v>1.561882344309538</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3788836213845066</v>
+        <v>0.940438141265453</v>
       </c>
       <c r="J8">
-        <v>0.05847464801166069</v>
+        <v>0.1446206292556642</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1892579164933039</v>
+        <v>0.3116696819327132</v>
       </c>
       <c r="M8">
-        <v>0.3665180257328799</v>
+        <v>0.2882295010502887</v>
       </c>
       <c r="N8">
-        <v>0.8792897113925306</v>
+        <v>1.57889871205608</v>
       </c>
       <c r="O8">
-        <v>1.95647647032078</v>
+        <v>3.993651145431784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.654601817347327</v>
+        <v>1.297526890840004</v>
       </c>
       <c r="C9">
-        <v>0.4241907268441309</v>
+        <v>0.1588098103021309</v>
       </c>
       <c r="D9">
-        <v>0.05954909263365948</v>
+        <v>0.1280864623944211</v>
       </c>
       <c r="E9">
-        <v>0.03962690395680912</v>
+        <v>0.117435039435585</v>
       </c>
       <c r="F9">
-        <v>0.827462744693058</v>
+        <v>1.555298731523109</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3776088036058987</v>
+        <v>0.9236752209440553</v>
       </c>
       <c r="J9">
-        <v>0.05542424519823097</v>
+        <v>0.1428941046335126</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2309825500639846</v>
+        <v>0.3198709853739246</v>
       </c>
       <c r="M9">
-        <v>0.4846344140383607</v>
+        <v>0.3202629921164686</v>
       </c>
       <c r="N9">
-        <v>0.8179594907385308</v>
+        <v>1.549944137647238</v>
       </c>
       <c r="O9">
-        <v>2.15246000288829</v>
+        <v>3.972972207443746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.151163002544479</v>
+        <v>1.440101607350186</v>
       </c>
       <c r="C10">
-        <v>0.4937629575873927</v>
+        <v>0.1809096999601252</v>
       </c>
       <c r="D10">
-        <v>0.06440959745689412</v>
+        <v>0.1286974027138115</v>
       </c>
       <c r="E10">
-        <v>0.03849350834997267</v>
+        <v>0.1164676359234793</v>
       </c>
       <c r="F10">
-        <v>0.8911262115194631</v>
+        <v>1.554201924670053</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.381203967689089</v>
+        <v>0.9135579864368992</v>
       </c>
       <c r="J10">
-        <v>0.05335136092700843</v>
+        <v>0.1417482617222534</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.262549910768243</v>
+        <v>0.3264079081921665</v>
       </c>
       <c r="M10">
-        <v>0.5724088216871905</v>
+        <v>0.344195055063885</v>
       </c>
       <c r="N10">
-        <v>0.7784596565851984</v>
+        <v>1.531225424700601</v>
       </c>
       <c r="O10">
-        <v>2.319308198108018</v>
+        <v>3.967976406767775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.378242011937743</v>
+        <v>1.505174222380333</v>
       </c>
       <c r="C11">
-        <v>0.5254902934907477</v>
+        <v>0.1909048998321339</v>
       </c>
       <c r="D11">
-        <v>0.06666997054660584</v>
+        <v>0.1290077952422379</v>
       </c>
       <c r="E11">
-        <v>0.03801457101825978</v>
+        <v>0.1160539867443005</v>
       </c>
       <c r="F11">
-        <v>0.9220646562959445</v>
+        <v>1.554514328754593</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3839452698241672</v>
+        <v>0.9094327000760885</v>
       </c>
       <c r="J11">
-        <v>0.05244534407500723</v>
+        <v>0.1412534373732832</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2771442616933086</v>
+        <v>0.3294916942243162</v>
       </c>
       <c r="M11">
-        <v>0.6126252413250768</v>
+        <v>0.3551664361443088</v>
       </c>
       <c r="N11">
-        <v>0.7617985498295354</v>
+        <v>1.523262869450697</v>
       </c>
       <c r="O11">
-        <v>2.400925327222609</v>
+        <v>3.967918270626711</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.464433250398486</v>
+        <v>1.529845116386298</v>
       </c>
       <c r="C12">
-        <v>0.5375203170063116</v>
+        <v>0.1946813389985778</v>
       </c>
       <c r="D12">
-        <v>0.06753342596325496</v>
+        <v>0.1291299704824453</v>
       </c>
       <c r="E12">
-        <v>0.03783859243062793</v>
+        <v>0.1159011362672722</v>
       </c>
       <c r="F12">
-        <v>0.9340868870365</v>
+        <v>1.554749201419327</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3851532198682435</v>
+        <v>0.9079391637939125</v>
       </c>
       <c r="J12">
-        <v>0.05210761603067837</v>
+        <v>0.1410698470255136</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2827075468198075</v>
+        <v>0.3306751679384234</v>
       </c>
       <c r="M12">
-        <v>0.6279015544300321</v>
+        <v>0.3593329363468882</v>
       </c>
       <c r="N12">
-        <v>0.7556865691055563</v>
+        <v>1.520327028813675</v>
       </c>
       <c r="O12">
-        <v>2.432720554004362</v>
+        <v>3.968214641128043</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.445860966232487</v>
+        <v>1.524530519342022</v>
       </c>
       <c r="C13">
-        <v>0.5349286719249164</v>
+        <v>0.1938683970670638</v>
       </c>
       <c r="D13">
-        <v>0.06734712491270045</v>
+        <v>0.1291034521847436</v>
       </c>
       <c r="E13">
-        <v>0.03787625119736138</v>
+        <v>0.1159338869843669</v>
       </c>
       <c r="F13">
-        <v>0.9314836837409217</v>
+        <v>1.554693434392377</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3848853301791237</v>
+        <v>0.9082577714238056</v>
       </c>
       <c r="J13">
-        <v>0.05218011259874089</v>
+        <v>0.1411092181543223</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2815077098747594</v>
+        <v>0.3304195889008241</v>
       </c>
       <c r="M13">
-        <v>0.6246093279464162</v>
+        <v>0.3584350822989251</v>
       </c>
       <c r="N13">
-        <v>0.7569939694646948</v>
+        <v>1.520955784061385</v>
       </c>
       <c r="O13">
-        <v>2.425832254921374</v>
+        <v>3.968136653033611</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.385328801138201</v>
+        <v>1.507203333258531</v>
       </c>
       <c r="C14">
-        <v>0.5264796729986472</v>
+        <v>0.1912157615704189</v>
       </c>
       <c r="D14">
-        <v>0.06674085474919877</v>
+        <v>0.1290177539433017</v>
       </c>
       <c r="E14">
-        <v>0.03799998456083742</v>
+        <v>0.1160413357578687</v>
       </c>
       <c r="F14">
-        <v>0.9230474573392513</v>
+        <v>1.554531316159839</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3840411792128862</v>
+        <v>0.9093084506140201</v>
       </c>
       <c r="J14">
-        <v>0.05241745126470931</v>
+        <v>0.1412382574128674</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.277601202362078</v>
+        <v>0.3295887451501898</v>
       </c>
       <c r="M14">
-        <v>0.6138810509218473</v>
+        <v>0.3555089802311429</v>
       </c>
       <c r="N14">
-        <v>0.7612917061827957</v>
+        <v>1.523019745034674</v>
       </c>
       <c r="O14">
-        <v>2.403522933823297</v>
+        <v>3.967936272602117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.348278255776108</v>
+        <v>1.496593701804045</v>
       </c>
       <c r="C15">
-        <v>0.5213065776250971</v>
+        <v>0.1895898305164678</v>
       </c>
       <c r="D15">
-        <v>0.06637048634402731</v>
+        <v>0.1289658640997686</v>
       </c>
       <c r="E15">
-        <v>0.03807647955429694</v>
+        <v>0.1161076444197207</v>
       </c>
       <c r="F15">
-        <v>0.9179206246219138</v>
+        <v>1.554447192243686</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3835465701297096</v>
+        <v>0.9099609587556614</v>
       </c>
       <c r="J15">
-        <v>0.05256352764755956</v>
+        <v>0.1413177907845764</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2752132298827945</v>
+        <v>0.3290818717526349</v>
       </c>
       <c r="M15">
-        <v>0.6073160045099257</v>
+        <v>0.3537181964430047</v>
       </c>
       <c r="N15">
-        <v>0.7639501606032297</v>
+        <v>1.524294319791643</v>
       </c>
       <c r="O15">
-        <v>2.389975602495497</v>
+        <v>3.96785499535693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.13634934002647</v>
+        <v>1.4358531449613</v>
       </c>
       <c r="C16">
-        <v>0.4916914398988013</v>
+        <v>0.1802553059717127</v>
       </c>
       <c r="D16">
-        <v>0.0642629033963189</v>
+        <v>0.1286777684249358</v>
       </c>
       <c r="E16">
-        <v>0.03852555515416078</v>
+        <v>0.1164951997383152</v>
       </c>
       <c r="F16">
-        <v>0.8891459645322755</v>
+        <v>1.554197826276422</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3810479816850219</v>
+        <v>0.9138371852018992</v>
       </c>
       <c r="J16">
-        <v>0.05341131878931993</v>
+        <v>0.1417811304564207</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2616011036528931</v>
+        <v>0.3262085806917128</v>
       </c>
       <c r="M16">
-        <v>0.5697868617970485</v>
+        <v>0.343479726887324</v>
       </c>
       <c r="N16">
-        <v>0.7795755832040854</v>
+        <v>1.531756911810369</v>
       </c>
       <c r="O16">
-        <v>2.314094949262483</v>
+        <v>3.968024762489762</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.006663531462834</v>
+        <v>1.398644649235962</v>
       </c>
       <c r="C17">
-        <v>0.4735465678154753</v>
+        <v>0.1745138669374171</v>
       </c>
       <c r="D17">
-        <v>0.0629828812830695</v>
+        <v>0.1285093244356261</v>
       </c>
       <c r="E17">
-        <v>0.03881051482059217</v>
+        <v>0.1167397134214543</v>
       </c>
       <c r="F17">
-        <v>0.8720154445727957</v>
+        <v>1.554252583662034</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3798059166680048</v>
+        <v>0.9163373302082292</v>
       </c>
       <c r="J17">
-        <v>0.05394090789799044</v>
+        <v>0.1420721346129783</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2533125885539818</v>
+        <v>0.3244740236079338</v>
       </c>
       <c r="M17">
-        <v>0.5468416209881042</v>
+        <v>0.3372202144390855</v>
       </c>
       <c r="N17">
-        <v>0.7895025312401245</v>
+        <v>1.536476475085706</v>
       </c>
       <c r="O17">
-        <v>2.269054798270986</v>
+        <v>3.968696052248447</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.932181838148665</v>
+        <v>1.37726360474278</v>
       </c>
       <c r="C18">
-        <v>0.4631172377311259</v>
+        <v>0.1712060794402248</v>
       </c>
       <c r="D18">
-        <v>0.06225126095598199</v>
+        <v>0.1284154983726964</v>
       </c>
       <c r="E18">
-        <v>0.03897785854515767</v>
+        <v>0.1168828393481309</v>
       </c>
       <c r="F18">
-        <v>0.8623471546583943</v>
+        <v>1.554360452402591</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3791949099674703</v>
+        <v>0.9178202529901753</v>
       </c>
       <c r="J18">
-        <v>0.05424898834396785</v>
+        <v>0.1422420004380989</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2485671034231274</v>
+        <v>0.3234867233537813</v>
       </c>
       <c r="M18">
-        <v>0.5336707985445841</v>
+        <v>0.333627885113529</v>
       </c>
       <c r="N18">
-        <v>0.7953347393023833</v>
+        <v>1.539243067863836</v>
       </c>
       <c r="O18">
-        <v>2.2436827702264</v>
+        <v>3.9692906008585</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.906981654811773</v>
+        <v>1.370027884281683</v>
       </c>
       <c r="C19">
-        <v>0.459587144227072</v>
+        <v>0.1700851860489365</v>
       </c>
       <c r="D19">
-        <v>0.06200432737343675</v>
+        <v>0.1283842567878963</v>
       </c>
       <c r="E19">
-        <v>0.03903510611910566</v>
+        <v>0.1169317269942427</v>
       </c>
       <c r="F19">
-        <v>0.8591047152182227</v>
+        <v>1.554410095172159</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3790054726099008</v>
+        <v>0.9183300572871502</v>
       </c>
       <c r="J19">
-        <v>0.05435389446991401</v>
+        <v>0.1422999417304158</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2469640270772828</v>
+        <v>0.3231542254307271</v>
       </c>
       <c r="M19">
-        <v>0.5292157927746644</v>
+        <v>0.3324129627944572</v>
       </c>
       <c r="N19">
-        <v>0.7973301918773998</v>
+        <v>1.540188726112483</v>
       </c>
       <c r="O19">
-        <v>2.235181978239751</v>
+        <v>3.969527706289824</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.020457195783365</v>
+        <v>1.402603467659901</v>
       </c>
       <c r="C20">
-        <v>0.4754773536618018</v>
+        <v>0.1751256195758799</v>
       </c>
       <c r="D20">
-        <v>0.06311866134830524</v>
+        <v>0.128526939286985</v>
       </c>
       <c r="E20">
-        <v>0.03877982328785912</v>
+        <v>0.1167134270893575</v>
       </c>
       <c r="F20">
-        <v>0.8738197429671004</v>
+        <v>1.554238850961895</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.379927359089514</v>
+        <v>0.916066537847307</v>
       </c>
       <c r="J20">
-        <v>0.05388417226610809</v>
+        <v>0.1420408993126099</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2541926324215353</v>
+        <v>0.3246575976877608</v>
       </c>
       <c r="M20">
-        <v>0.5492813791111502</v>
+        <v>0.3378857267281532</v>
       </c>
       <c r="N20">
-        <v>0.788433048681263</v>
+        <v>1.535968685654197</v>
       </c>
       <c r="O20">
-        <v>2.273793677884072</v>
+        <v>3.968603019881044</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.403102849586276</v>
+        <v>1.512291964877249</v>
       </c>
       <c r="C21">
-        <v>0.5289608904336376</v>
+        <v>0.1919951376210633</v>
       </c>
       <c r="D21">
-        <v>0.06691872399049714</v>
+        <v>0.1290428000295734</v>
       </c>
       <c r="E21">
-        <v>0.03796349399318633</v>
+        <v>0.1160096726882482</v>
       </c>
       <c r="F21">
-        <v>0.9255168789890575</v>
+        <v>1.554575771272056</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3842844262347214</v>
+        <v>0.9089979782200572</v>
       </c>
       <c r="J21">
-        <v>0.05234759326189664</v>
+        <v>0.1412002527127134</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2787476163869371</v>
+        <v>0.3298323586858913</v>
       </c>
       <c r="M21">
-        <v>0.6170308749876341</v>
+        <v>0.3563681272816055</v>
       </c>
       <c r="N21">
-        <v>0.7600239280783967</v>
+        <v>1.522411355130849</v>
       </c>
       <c r="O21">
-        <v>2.410051053479151</v>
+        <v>3.967986488740024</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.65437314655361</v>
+        <v>1.584149839067948</v>
       </c>
       <c r="C22">
-        <v>0.5640084686311582</v>
+        <v>0.2029705700868192</v>
       </c>
       <c r="D22">
-        <v>0.06944621941383389</v>
+        <v>0.1294069535694362</v>
       </c>
       <c r="E22">
-        <v>0.03746141887373611</v>
+        <v>0.115571811609156</v>
       </c>
       <c r="F22">
-        <v>0.9611019118882496</v>
+        <v>1.555475393037952</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3881277712619493</v>
+        <v>0.9047782433379226</v>
       </c>
       <c r="J22">
-        <v>0.05137462103222035</v>
+        <v>0.1406729210891831</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2950113268990293</v>
+        <v>0.3333058824518815</v>
       </c>
       <c r="M22">
-        <v>0.661587426510394</v>
+        <v>0.3685165370189267</v>
       </c>
       <c r="N22">
-        <v>0.7426111639342068</v>
+        <v>1.514013667119727</v>
       </c>
       <c r="O22">
-        <v>2.504316728935208</v>
+        <v>3.969439317836219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.52014609256986</v>
+        <v>1.545782890311557</v>
       </c>
       <c r="C23">
-        <v>0.5452929027872813</v>
+        <v>0.1971173836429614</v>
       </c>
       <c r="D23">
-        <v>0.06809308392377034</v>
+        <v>0.1292101376163686</v>
       </c>
       <c r="E23">
-        <v>0.03772646926576684</v>
+        <v>0.1158034892375213</v>
       </c>
       <c r="F23">
-        <v>0.9419372851356798</v>
+        <v>1.554933113257562</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3859816155104383</v>
+        <v>0.9069937924700326</v>
       </c>
       <c r="J23">
-        <v>0.05189103699690989</v>
+        <v>0.140952351242202</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2863102877537074</v>
+        <v>0.3314436639050768</v>
       </c>
       <c r="M23">
-        <v>0.6377792226663104</v>
+        <v>0.3620264739255177</v>
       </c>
       <c r="N23">
-        <v>0.7517958780120608</v>
+        <v>1.518453345653441</v>
       </c>
       <c r="O23">
-        <v>2.453505138132698</v>
+        <v>3.968494130871676</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.014220844406282</v>
+        <v>1.400813652664795</v>
       </c>
       <c r="C24">
-        <v>0.4746044382281411</v>
+        <v>0.1748490678692178</v>
       </c>
       <c r="D24">
-        <v>0.06305726187581939</v>
+        <v>0.1285189662205326</v>
       </c>
       <c r="E24">
-        <v>0.03879368798487448</v>
+        <v>0.1167253031910009</v>
       </c>
       <c r="F24">
-        <v>0.8730034598052754</v>
+        <v>1.554244821564239</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3798721347340717</v>
+        <v>0.9161888211694986</v>
       </c>
       <c r="J24">
-        <v>0.05390981119635097</v>
+        <v>0.1420550128053648</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2537947034784764</v>
+        <v>0.3245745729385732</v>
       </c>
       <c r="M24">
-        <v>0.5481783004219167</v>
+        <v>0.3375848288279855</v>
       </c>
       <c r="N24">
-        <v>0.7889161728588263</v>
+        <v>1.536198091369634</v>
       </c>
       <c r="O24">
-        <v>2.271649608989264</v>
+        <v>3.968644429984266</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.472604981292193</v>
+        <v>1.245222641999817</v>
       </c>
       <c r="C25">
-        <v>0.3986130624797397</v>
+        <v>0.1506207781314117</v>
       </c>
       <c r="D25">
-        <v>0.05780029037268974</v>
+        <v>0.1278904877043274</v>
       </c>
       <c r="E25">
-        <v>0.04007606056883795</v>
+        <v>0.1178148008455686</v>
       </c>
       <c r="F25">
-        <v>0.8056322369792852</v>
+        <v>1.556422647054774</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3771970141849863</v>
+        <v>0.9278239220136726</v>
       </c>
       <c r="J25">
-        <v>0.05622006501515209</v>
+        <v>0.1433395787458567</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.219546052658373</v>
+        <v>0.3175621165232769</v>
       </c>
       <c r="M25">
-        <v>0.4525283599171033</v>
+        <v>0.3115265719109246</v>
       </c>
       <c r="N25">
-        <v>0.8336072355488611</v>
+        <v>1.557328033575359</v>
       </c>
       <c r="O25">
-        <v>2.095667658180702</v>
+        <v>3.976775706613552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_120/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.131363195441736</v>
+        <v>2.076246063154201</v>
       </c>
       <c r="C2">
-        <v>0.1326042677527255</v>
+        <v>0.3427278639343569</v>
       </c>
       <c r="D2">
-        <v>0.1275294616269278</v>
+        <v>0.05406526800950218</v>
       </c>
       <c r="E2">
-        <v>0.1186993804594541</v>
+        <v>0.0411293433176545</v>
       </c>
       <c r="F2">
-        <v>1.560539851896451</v>
+        <v>0.7612726559184679</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9378677532000133</v>
+        <v>0.3782249782962062</v>
       </c>
       <c r="J2">
-        <v>0.1443678292441852</v>
+        <v>0.05803388062567816</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3127432918536357</v>
+        <v>0.1949294927655885</v>
       </c>
       <c r="M2">
-        <v>0.2926087856766273</v>
+        <v>0.382746582352631</v>
       </c>
       <c r="N2">
-        <v>1.574602123217531</v>
+        <v>0.8702074133965709</v>
       </c>
       <c r="O2">
-        <v>3.989614806516471</v>
+        <v>1.981167146405824</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.054654112222835</v>
+        <v>1.808649615884974</v>
       </c>
       <c r="C3">
-        <v>0.120284905689843</v>
+        <v>0.3048265721640746</v>
       </c>
       <c r="D3">
-        <v>0.1273487956012396</v>
+        <v>0.05161190258879245</v>
       </c>
       <c r="E3">
-        <v>0.1193505311781822</v>
+        <v>0.04190944669871666</v>
       </c>
       <c r="F3">
-        <v>1.564899490733488</v>
+        <v>0.7341323017752757</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9455961383165139</v>
+        <v>0.3806215727152455</v>
       </c>
       <c r="J3">
-        <v>0.1451163965833979</v>
+        <v>0.05933284329088906</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3096940352696365</v>
+        <v>0.1785717854440492</v>
       </c>
       <c r="M3">
-        <v>0.2799589163362128</v>
+        <v>0.3357601415632701</v>
       </c>
       <c r="N3">
-        <v>1.58738224020091</v>
+        <v>0.8971755839022677</v>
       </c>
       <c r="O3">
-        <v>4.002590084295832</v>
+        <v>1.911927293025599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.007785563639914</v>
+        <v>1.644699189386927</v>
       </c>
       <c r="C4">
-        <v>0.1126673836268992</v>
+        <v>0.281521039215761</v>
       </c>
       <c r="D4">
-        <v>0.1272696348334676</v>
+        <v>0.05014192086813551</v>
       </c>
       <c r="E4">
-        <v>0.1197759119407662</v>
+        <v>0.04242057524477971</v>
       </c>
       <c r="F4">
-        <v>1.568351032597818</v>
+        <v>0.7188021051367741</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9507960789339478</v>
+        <v>0.3828790802595066</v>
       </c>
       <c r="J4">
-        <v>0.1456016224407435</v>
+        <v>0.06016459508676952</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3079292087611449</v>
+        <v>0.1686735012063778</v>
       </c>
       <c r="M4">
-        <v>0.2722774406975574</v>
+        <v>0.3070318436635162</v>
       </c>
       <c r="N4">
-        <v>1.595759612943993</v>
+        <v>0.9147579965615478</v>
       </c>
       <c r="O4">
-        <v>4.012665513329068</v>
+        <v>1.873215404968136</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9887458202979644</v>
+        <v>1.577957790758404</v>
       </c>
       <c r="C5">
-        <v>0.1095499019420316</v>
+        <v>0.2720126115073498</v>
       </c>
       <c r="D5">
-        <v>0.1272453982941961</v>
+        <v>0.04955177171606451</v>
       </c>
       <c r="E5">
-        <v>0.1199557005955256</v>
+        <v>0.04263686625563334</v>
       </c>
       <c r="F5">
-        <v>1.569952506591456</v>
+        <v>0.7128753584240002</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9530294468627538</v>
+        <v>0.3839892554242716</v>
       </c>
       <c r="J5">
-        <v>0.1458058067498973</v>
+        <v>0.06051210312125122</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3072371620956105</v>
+        <v>0.1646744079776212</v>
       </c>
       <c r="M5">
-        <v>0.2691689674518187</v>
+        <v>0.2953515448052713</v>
       </c>
       <c r="N5">
-        <v>1.599306940158947</v>
+        <v>0.9221742166437608</v>
       </c>
       <c r="O5">
-        <v>4.01730171439462</v>
+        <v>1.858350999772767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9855879260251754</v>
+        <v>1.566879095657612</v>
       </c>
       <c r="C6">
-        <v>0.1090314486779107</v>
+        <v>0.2704329904899083</v>
       </c>
       <c r="D6">
-        <v>0.1272418593395557</v>
+        <v>0.04945430659673988</v>
       </c>
       <c r="E6">
-        <v>0.1199859438417414</v>
+        <v>0.04267326222034429</v>
       </c>
       <c r="F6">
-        <v>1.570230208211811</v>
+        <v>0.7119101535744576</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9534072028578713</v>
+        <v>0.3841848774387842</v>
       </c>
       <c r="J6">
-        <v>0.1458401013926416</v>
+        <v>0.06057032276287355</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3071238906754417</v>
+        <v>0.1640123903255528</v>
       </c>
       <c r="M6">
-        <v>0.268654131783812</v>
+        <v>0.2934135451761861</v>
       </c>
       <c r="N6">
-        <v>1.599904036709873</v>
+        <v>0.9234206730465431</v>
       </c>
       <c r="O6">
-        <v>4.018103590808408</v>
+        <v>1.85593652443697</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.007528543881847</v>
+        <v>1.643798834162169</v>
       </c>
       <c r="C7">
-        <v>0.1126253937541151</v>
+        <v>0.2813928541514628</v>
       </c>
       <c r="D7">
-        <v>0.1272692754446965</v>
+        <v>0.05013392630204905</v>
       </c>
       <c r="E7">
-        <v>0.1197783105311396</v>
+        <v>0.04242345992507834</v>
       </c>
       <c r="F7">
-        <v>1.568371841140362</v>
+        <v>0.7187208968987591</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9508257358948917</v>
+        <v>0.3828932918290242</v>
       </c>
       <c r="J7">
-        <v>0.1456043500055655</v>
+        <v>0.06016924707569693</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3079197655514392</v>
+        <v>0.1686194307971363</v>
       </c>
       <c r="M7">
-        <v>0.2722354301577283</v>
+        <v>0.3068742158324156</v>
       </c>
       <c r="N7">
-        <v>1.595806912818446</v>
+        <v>0.9148570050005702</v>
       </c>
       <c r="O7">
-        <v>4.01272589104164</v>
+        <v>1.873011307655588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.10486677463382</v>
+        <v>1.983892982076839</v>
       </c>
       <c r="C8">
-        <v>0.1283677145816</v>
+        <v>0.329664871627358</v>
       </c>
       <c r="D8">
-        <v>0.1274605942275144</v>
+        <v>0.05321162517988398</v>
       </c>
       <c r="E8">
-        <v>0.1189185972995608</v>
+        <v>0.04139160269417985</v>
       </c>
       <c r="F8">
-        <v>1.561882344309538</v>
+        <v>0.751628495507461</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.940438141265453</v>
+        <v>0.3788836213845173</v>
       </c>
       <c r="J8">
-        <v>0.1446206292556642</v>
+        <v>0.05847464801159763</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3116696819327132</v>
+        <v>0.1892579164933395</v>
       </c>
       <c r="M8">
-        <v>0.2882295010502887</v>
+        <v>0.3665180257328799</v>
       </c>
       <c r="N8">
-        <v>1.57889871205608</v>
+        <v>0.8792897113925378</v>
       </c>
       <c r="O8">
-        <v>3.993651145431784</v>
+        <v>1.956476470320837</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.297526890840004</v>
+        <v>2.65460181734727</v>
       </c>
       <c r="C9">
-        <v>0.1588098103021309</v>
+        <v>0.4241907268438752</v>
       </c>
       <c r="D9">
-        <v>0.1280864623944211</v>
+        <v>0.05954909263365948</v>
       </c>
       <c r="E9">
-        <v>0.117435039435585</v>
+        <v>0.03962690395681001</v>
       </c>
       <c r="F9">
-        <v>1.555298731523109</v>
+        <v>0.8274627446930438</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9236752209440553</v>
+        <v>0.3776088036058951</v>
       </c>
       <c r="J9">
-        <v>0.1428941046335126</v>
+        <v>0.05542424519829847</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3198709853739246</v>
+        <v>0.2309825500639278</v>
       </c>
       <c r="M9">
-        <v>0.3202629921164686</v>
+        <v>0.4846344140383536</v>
       </c>
       <c r="N9">
-        <v>1.549944137647238</v>
+        <v>0.8179594907385805</v>
       </c>
       <c r="O9">
-        <v>3.972972207443746</v>
+        <v>2.15246000288829</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.440101607350186</v>
+        <v>3.151163002544479</v>
       </c>
       <c r="C10">
-        <v>0.1809096999601252</v>
+        <v>0.4937629575877338</v>
       </c>
       <c r="D10">
-        <v>0.1286974027138115</v>
+        <v>0.06440959745690122</v>
       </c>
       <c r="E10">
-        <v>0.1164676359234793</v>
+        <v>0.03849350835000109</v>
       </c>
       <c r="F10">
-        <v>1.554201924670053</v>
+        <v>0.8911262115194631</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9135579864368992</v>
+        <v>0.3812039676890748</v>
       </c>
       <c r="J10">
-        <v>0.1417482617222534</v>
+        <v>0.05335136092696846</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3264079081921665</v>
+        <v>0.262549910768243</v>
       </c>
       <c r="M10">
-        <v>0.344195055063885</v>
+        <v>0.5724088216871976</v>
       </c>
       <c r="N10">
-        <v>1.531225424700601</v>
+        <v>0.7784596565851771</v>
       </c>
       <c r="O10">
-        <v>3.967976406767775</v>
+        <v>2.319308198108075</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.505174222380333</v>
+        <v>3.3782420119378</v>
       </c>
       <c r="C11">
-        <v>0.1909048998321339</v>
+        <v>0.5254902934912025</v>
       </c>
       <c r="D11">
-        <v>0.1290077952422379</v>
+        <v>0.06666997054666979</v>
       </c>
       <c r="E11">
-        <v>0.1160539867443005</v>
+        <v>0.038014571018258</v>
       </c>
       <c r="F11">
-        <v>1.554514328754593</v>
+        <v>0.9220646562959303</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9094327000760885</v>
+        <v>0.3839452698241672</v>
       </c>
       <c r="J11">
-        <v>0.1412534373732832</v>
+        <v>0.05244534407505874</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3294916942243162</v>
+        <v>0.2771442616933086</v>
       </c>
       <c r="M11">
-        <v>0.3551664361443088</v>
+        <v>0.6126252413250697</v>
       </c>
       <c r="N11">
-        <v>1.523262869450697</v>
+        <v>0.7617985498295852</v>
       </c>
       <c r="O11">
-        <v>3.967918270626711</v>
+        <v>2.400925327222637</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.529845116386298</v>
+        <v>3.464433250398542</v>
       </c>
       <c r="C12">
-        <v>0.1946813389985778</v>
+        <v>0.5375203170063401</v>
       </c>
       <c r="D12">
-        <v>0.1291299704824453</v>
+        <v>0.06753342596324075</v>
       </c>
       <c r="E12">
-        <v>0.1159011362672722</v>
+        <v>0.03783859243062793</v>
       </c>
       <c r="F12">
-        <v>1.554749201419327</v>
+        <v>0.9340868870365</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9079391637939125</v>
+        <v>0.3851532198682293</v>
       </c>
       <c r="J12">
-        <v>0.1410698470255136</v>
+        <v>0.05210761603061709</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3306751679384234</v>
+        <v>0.2827075468197933</v>
       </c>
       <c r="M12">
-        <v>0.3593329363468882</v>
+        <v>0.6279015544300535</v>
       </c>
       <c r="N12">
-        <v>1.520327028813675</v>
+        <v>0.7556865691055492</v>
       </c>
       <c r="O12">
-        <v>3.968214641128043</v>
+        <v>2.432720554004362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.524530519342022</v>
+        <v>3.445860966232487</v>
       </c>
       <c r="C13">
-        <v>0.1938683970670638</v>
+        <v>0.534928671924888</v>
       </c>
       <c r="D13">
-        <v>0.1291034521847436</v>
+        <v>0.06734712491270045</v>
       </c>
       <c r="E13">
-        <v>0.1159338869843669</v>
+        <v>0.03787625119736227</v>
       </c>
       <c r="F13">
-        <v>1.554693434392377</v>
+        <v>0.9314836837409217</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9082577714238056</v>
+        <v>0.3848853301791095</v>
       </c>
       <c r="J13">
-        <v>0.1411092181543223</v>
+        <v>0.05218011259879773</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3304195889008241</v>
+        <v>0.2815077098747167</v>
       </c>
       <c r="M13">
-        <v>0.3584350822989251</v>
+        <v>0.6246093279463949</v>
       </c>
       <c r="N13">
-        <v>1.520955784061385</v>
+        <v>0.7569939694646877</v>
       </c>
       <c r="O13">
-        <v>3.968136653033611</v>
+        <v>2.425832254921488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.507203333258531</v>
+        <v>3.385328801138144</v>
       </c>
       <c r="C14">
-        <v>0.1912157615704189</v>
+        <v>0.5264796729986472</v>
       </c>
       <c r="D14">
-        <v>0.1290177539433017</v>
+        <v>0.06674085474905667</v>
       </c>
       <c r="E14">
-        <v>0.1160413357578687</v>
+        <v>0.03799998456083653</v>
       </c>
       <c r="F14">
-        <v>1.554531316159839</v>
+        <v>0.9230474573392513</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9093084506140201</v>
+        <v>0.3840411792128933</v>
       </c>
       <c r="J14">
-        <v>0.1412382574128674</v>
+        <v>0.05241745126466402</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3295887451501898</v>
+        <v>0.2776012023620922</v>
       </c>
       <c r="M14">
-        <v>0.3555089802311429</v>
+        <v>0.6138810509218402</v>
       </c>
       <c r="N14">
-        <v>1.523019745034674</v>
+        <v>0.7612917061827815</v>
       </c>
       <c r="O14">
-        <v>3.967936272602117</v>
+        <v>2.403522933823268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.496593701804045</v>
+        <v>3.348278255775995</v>
       </c>
       <c r="C15">
-        <v>0.1895898305164678</v>
+        <v>0.5213065776251256</v>
       </c>
       <c r="D15">
-        <v>0.1289658640997686</v>
+        <v>0.06637048634390652</v>
       </c>
       <c r="E15">
-        <v>0.1161076444197207</v>
+        <v>0.03807647955429871</v>
       </c>
       <c r="F15">
-        <v>1.554447192243686</v>
+        <v>0.9179206246219138</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9099609587556614</v>
+        <v>0.3835465701297096</v>
       </c>
       <c r="J15">
-        <v>0.1413177907845764</v>
+        <v>0.05256352764750716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3290818717526349</v>
+        <v>0.2752132298829082</v>
       </c>
       <c r="M15">
-        <v>0.3537181964430047</v>
+        <v>0.6073160045099328</v>
       </c>
       <c r="N15">
-        <v>1.524294319791643</v>
+        <v>0.7639501606032368</v>
       </c>
       <c r="O15">
-        <v>3.96785499535693</v>
+        <v>2.389975602495497</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.4358531449613</v>
+        <v>3.136349340026413</v>
       </c>
       <c r="C16">
-        <v>0.1802553059717127</v>
+        <v>0.4916914398986023</v>
       </c>
       <c r="D16">
-        <v>0.1286777684249358</v>
+        <v>0.06426290339643259</v>
       </c>
       <c r="E16">
-        <v>0.1164951997383152</v>
+        <v>0.03852555515416167</v>
       </c>
       <c r="F16">
-        <v>1.554197826276422</v>
+        <v>0.8891459645322755</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9138371852018992</v>
+        <v>0.381047981685029</v>
       </c>
       <c r="J16">
-        <v>0.1417811304564207</v>
+        <v>0.05341131878932348</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3262085806917128</v>
+        <v>0.2616011036529216</v>
       </c>
       <c r="M16">
-        <v>0.343479726887324</v>
+        <v>0.5697868617970414</v>
       </c>
       <c r="N16">
-        <v>1.531756911810369</v>
+        <v>0.7795755832040854</v>
       </c>
       <c r="O16">
-        <v>3.968024762489762</v>
+        <v>2.314094949262454</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398644649235962</v>
+        <v>3.006663531462777</v>
       </c>
       <c r="C17">
-        <v>0.1745138669374171</v>
+        <v>0.4735465678153901</v>
       </c>
       <c r="D17">
-        <v>0.1285093244356261</v>
+        <v>0.06298288128291318</v>
       </c>
       <c r="E17">
-        <v>0.1167397134214543</v>
+        <v>0.03881051482057796</v>
       </c>
       <c r="F17">
-        <v>1.554252583662034</v>
+        <v>0.8720154445727957</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9163373302082292</v>
+        <v>0.3798059166680048</v>
       </c>
       <c r="J17">
-        <v>0.1420721346129783</v>
+        <v>0.05394090789787853</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3244740236079338</v>
+        <v>0.2533125885538823</v>
       </c>
       <c r="M17">
-        <v>0.3372202144390855</v>
+        <v>0.5468416209881113</v>
       </c>
       <c r="N17">
-        <v>1.536476475085706</v>
+        <v>0.7895025312401742</v>
       </c>
       <c r="O17">
-        <v>3.968696052248447</v>
+        <v>2.269054798270929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.37726360474278</v>
+        <v>2.932181838148438</v>
       </c>
       <c r="C18">
-        <v>0.1712060794402248</v>
+        <v>0.4631172377308701</v>
       </c>
       <c r="D18">
-        <v>0.1284154983726964</v>
+        <v>0.06225126095598199</v>
       </c>
       <c r="E18">
-        <v>0.1168828393481309</v>
+        <v>0.03897785854515678</v>
       </c>
       <c r="F18">
-        <v>1.554360452402591</v>
+        <v>0.8623471546583943</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9178202529901753</v>
+        <v>0.3791949099674525</v>
       </c>
       <c r="J18">
-        <v>0.1422420004380989</v>
+        <v>0.05424898834399894</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3234867233537813</v>
+        <v>0.2485671034231274</v>
       </c>
       <c r="M18">
-        <v>0.333627885113529</v>
+        <v>0.5336707985445841</v>
       </c>
       <c r="N18">
-        <v>1.539243067863836</v>
+        <v>0.7953347393023762</v>
       </c>
       <c r="O18">
-        <v>3.9692906008585</v>
+        <v>2.2436827702264</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.370027884281683</v>
+        <v>2.906981654811602</v>
       </c>
       <c r="C19">
-        <v>0.1700851860489365</v>
+        <v>0.459587144226731</v>
       </c>
       <c r="D19">
-        <v>0.1283842567878963</v>
+        <v>0.06200432737354333</v>
       </c>
       <c r="E19">
-        <v>0.1169317269942427</v>
+        <v>0.03903510611909145</v>
       </c>
       <c r="F19">
-        <v>1.554410095172159</v>
+        <v>0.8591047152182085</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9183300572871502</v>
+        <v>0.3790054726099221</v>
       </c>
       <c r="J19">
-        <v>0.1422999417304158</v>
+        <v>0.05435389446999217</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3231542254307271</v>
+        <v>0.2469640270772686</v>
       </c>
       <c r="M19">
-        <v>0.3324129627944572</v>
+        <v>0.5292157927746644</v>
       </c>
       <c r="N19">
-        <v>1.540188726112483</v>
+        <v>0.7973301918773998</v>
       </c>
       <c r="O19">
-        <v>3.969527706289824</v>
+        <v>2.235181978239751</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.402603467659901</v>
+        <v>3.020457195783308</v>
       </c>
       <c r="C20">
-        <v>0.1751256195758799</v>
+        <v>0.4754773536619155</v>
       </c>
       <c r="D20">
-        <v>0.128526939286985</v>
+        <v>0.06311866134824839</v>
       </c>
       <c r="E20">
-        <v>0.1167134270893575</v>
+        <v>0.03877982328784846</v>
       </c>
       <c r="F20">
-        <v>1.554238850961895</v>
+        <v>0.8738197429671146</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.916066537847307</v>
+        <v>0.3799273590895282</v>
       </c>
       <c r="J20">
-        <v>0.1420408993126099</v>
+        <v>0.05388417226611164</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3246575976877608</v>
+        <v>0.2541926324214216</v>
       </c>
       <c r="M20">
-        <v>0.3378857267281532</v>
+        <v>0.5492813791111573</v>
       </c>
       <c r="N20">
-        <v>1.535968685654197</v>
+        <v>0.7884330486812914</v>
       </c>
       <c r="O20">
-        <v>3.968603019881044</v>
+        <v>2.2737936778841</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.512291964877249</v>
+        <v>3.403102849586332</v>
       </c>
       <c r="C21">
-        <v>0.1919951376210633</v>
+        <v>0.5289608904337229</v>
       </c>
       <c r="D21">
-        <v>0.1290428000295734</v>
+        <v>0.06691872399026266</v>
       </c>
       <c r="E21">
-        <v>0.1160096726882482</v>
+        <v>0.03796349399316856</v>
       </c>
       <c r="F21">
-        <v>1.554575771272056</v>
+        <v>0.9255168789890575</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9089979782200572</v>
+        <v>0.3842844262347072</v>
       </c>
       <c r="J21">
-        <v>0.1412002527127134</v>
+        <v>0.05234759326194993</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3298323586858913</v>
+        <v>0.2787476163869371</v>
       </c>
       <c r="M21">
-        <v>0.3563681272816055</v>
+        <v>0.617030874987627</v>
       </c>
       <c r="N21">
-        <v>1.522411355130849</v>
+        <v>0.7600239280783967</v>
       </c>
       <c r="O21">
-        <v>3.967986488740024</v>
+        <v>2.410051053479151</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.584149839067948</v>
+        <v>3.654373146553439</v>
       </c>
       <c r="C22">
-        <v>0.2029705700868192</v>
+        <v>0.5640084686309308</v>
       </c>
       <c r="D22">
-        <v>0.1294069535694362</v>
+        <v>0.06944621941395468</v>
       </c>
       <c r="E22">
-        <v>0.115571811609156</v>
+        <v>0.03746141887374765</v>
       </c>
       <c r="F22">
-        <v>1.555475393037952</v>
+        <v>0.961101911888278</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9047782433379226</v>
+        <v>0.3881277712619635</v>
       </c>
       <c r="J22">
-        <v>0.1406729210891831</v>
+        <v>0.05137462103212087</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3333058824518815</v>
+        <v>0.2950113268990151</v>
       </c>
       <c r="M22">
-        <v>0.3685165370189267</v>
+        <v>0.6615874265104011</v>
       </c>
       <c r="N22">
-        <v>1.514013667119727</v>
+        <v>0.7426111639341997</v>
       </c>
       <c r="O22">
-        <v>3.969439317836219</v>
+        <v>2.504316728935208</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.545782890311557</v>
+        <v>3.52014609257003</v>
       </c>
       <c r="C23">
-        <v>0.1971173836429614</v>
+        <v>0.5452929027870255</v>
       </c>
       <c r="D23">
-        <v>0.1292101376163686</v>
+        <v>0.06809308392376323</v>
       </c>
       <c r="E23">
-        <v>0.1158034892375213</v>
+        <v>0.03772646926576328</v>
       </c>
       <c r="F23">
-        <v>1.554933113257562</v>
+        <v>0.9419372851356798</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9069937924700326</v>
+        <v>0.3859816155104383</v>
       </c>
       <c r="J23">
-        <v>0.140952351242202</v>
+        <v>0.05189103699692943</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3314436639050768</v>
+        <v>0.2863102877536079</v>
       </c>
       <c r="M23">
-        <v>0.3620264739255177</v>
+        <v>0.6377792226663175</v>
       </c>
       <c r="N23">
-        <v>1.518453345653441</v>
+        <v>0.7517958780121177</v>
       </c>
       <c r="O23">
-        <v>3.968494130871676</v>
+        <v>2.45350513813267</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.400813652664795</v>
+        <v>3.014220844406168</v>
       </c>
       <c r="C24">
-        <v>0.1748490678692178</v>
+        <v>0.4746044382282548</v>
       </c>
       <c r="D24">
-        <v>0.1285189662205326</v>
+        <v>0.06305726187586913</v>
       </c>
       <c r="E24">
-        <v>0.1167253031910009</v>
+        <v>0.03879368798487448</v>
       </c>
       <c r="F24">
-        <v>1.554244821564239</v>
+        <v>0.8730034598052896</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9161888211694986</v>
+        <v>0.3798721347340859</v>
       </c>
       <c r="J24">
-        <v>0.1420550128053648</v>
+        <v>0.05390981119637761</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3245745729385732</v>
+        <v>0.2537947034784338</v>
       </c>
       <c r="M24">
-        <v>0.3375848288279855</v>
+        <v>0.5481783004219096</v>
       </c>
       <c r="N24">
-        <v>1.536198091369634</v>
+        <v>0.7889161728588903</v>
       </c>
       <c r="O24">
-        <v>3.968644429984266</v>
+        <v>2.271649608989293</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.245222641999817</v>
+        <v>2.472604981292136</v>
       </c>
       <c r="C25">
-        <v>0.1506207781314117</v>
+        <v>0.3986130624800808</v>
       </c>
       <c r="D25">
-        <v>0.1278904877043274</v>
+        <v>0.05780029037267553</v>
       </c>
       <c r="E25">
-        <v>0.1178148008455686</v>
+        <v>0.04007606056883528</v>
       </c>
       <c r="F25">
-        <v>1.556422647054774</v>
+        <v>0.8056322369792994</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9278239220136726</v>
+        <v>0.3771970141850041</v>
       </c>
       <c r="J25">
-        <v>0.1433395787458567</v>
+        <v>0.05622006501511212</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3175621165232769</v>
+        <v>0.2195460526584299</v>
       </c>
       <c r="M25">
-        <v>0.3115265719109246</v>
+        <v>0.4525283599171175</v>
       </c>
       <c r="N25">
-        <v>1.557328033575359</v>
+        <v>0.833607235548854</v>
       </c>
       <c r="O25">
-        <v>3.976775706613552</v>
+        <v>2.095667658180645</v>
       </c>
     </row>
   </sheetData>
